--- a/horarios_optimizados-831-push_gap_0.70.xlsx
+++ b/horarios_optimizados-831-push_gap_0.70.xlsx
@@ -626,92 +626,24 @@
       <c r="D5" s="4" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr"/>
       <c r="F5" s="4" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="G5" s="4" t="inlineStr"/>
+      <c r="H5" s="4" t="inlineStr"/>
+      <c r="I5" s="4" t="inlineStr"/>
+      <c r="J5" s="4" t="inlineStr"/>
+      <c r="K5" s="4" t="inlineStr"/>
       <c r="L5" s="4" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X5" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M5" s="4" t="inlineStr"/>
+      <c r="N5" s="4" t="inlineStr"/>
+      <c r="O5" s="4" t="inlineStr"/>
+      <c r="P5" s="4" t="inlineStr"/>
+      <c r="Q5" s="4" t="inlineStr"/>
+      <c r="R5" s="4" t="inlineStr"/>
+      <c r="S5" s="4" t="inlineStr"/>
+      <c r="T5" s="4" t="inlineStr"/>
+      <c r="U5" s="4" t="inlineStr"/>
+      <c r="V5" s="4" t="inlineStr"/>
+      <c r="W5" s="4" t="inlineStr"/>
+      <c r="X5" s="4" t="inlineStr"/>
       <c r="Y5" s="4" t="inlineStr"/>
     </row>
     <row r="6">
@@ -725,27 +657,35 @@
       <c r="D6" s="4" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr"/>
       <c r="F6" s="4" t="inlineStr"/>
-      <c r="G6" s="4" t="inlineStr"/>
-      <c r="H6" s="4" t="inlineStr"/>
-      <c r="I6" s="4" t="inlineStr"/>
-      <c r="J6" s="4" t="inlineStr"/>
-      <c r="K6" s="4" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L6" s="4" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O6" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M6" s="4" t="inlineStr"/>
+      <c r="N6" s="4" t="inlineStr"/>
+      <c r="O6" s="4" t="inlineStr"/>
       <c r="P6" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -799,46 +739,14 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="inlineStr"/>
+      <c r="D7" s="4" t="inlineStr"/>
+      <c r="E7" s="4" t="inlineStr"/>
+      <c r="F7" s="4" t="inlineStr"/>
+      <c r="G7" s="4" t="inlineStr"/>
+      <c r="H7" s="4" t="inlineStr"/>
+      <c r="I7" s="4" t="inlineStr"/>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -849,8 +757,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="L7" s="4" t="inlineStr"/>
-      <c r="M7" s="4" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="N7" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -871,11 +787,7 @@
           <t>R</t>
         </is>
       </c>
-      <c r="R7" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="R7" s="4" t="inlineStr"/>
       <c r="S7" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -891,17 +803,21 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V7" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W7" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr"/>
+      <c r="V7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X7" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
@@ -910,52 +826,16 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B8" s="4" t="inlineStr"/>
+      <c r="C8" s="4" t="inlineStr"/>
+      <c r="D8" s="4" t="inlineStr"/>
+      <c r="E8" s="4" t="inlineStr"/>
+      <c r="F8" s="4" t="inlineStr"/>
+      <c r="G8" s="4" t="inlineStr"/>
+      <c r="H8" s="4" t="inlineStr"/>
       <c r="I8" s="4" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K8" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J8" s="4" t="inlineStr"/>
+      <c r="K8" s="4" t="inlineStr"/>
       <c r="L8" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -971,16 +851,52 @@
           <t>R</t>
         </is>
       </c>
-      <c r="O8" s="4" t="inlineStr"/>
+      <c r="O8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="P8" s="4" t="inlineStr"/>
-      <c r="Q8" s="4" t="inlineStr"/>
-      <c r="R8" s="4" t="inlineStr"/>
-      <c r="S8" s="4" t="inlineStr"/>
-      <c r="T8" s="4" t="inlineStr"/>
-      <c r="U8" s="4" t="inlineStr"/>
-      <c r="V8" s="4" t="inlineStr"/>
-      <c r="W8" s="4" t="inlineStr"/>
-      <c r="X8" s="4" t="inlineStr"/>
+      <c r="Q8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X8" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
@@ -989,12 +905,36 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr"/>
-      <c r="C9" s="4" t="inlineStr"/>
-      <c r="D9" s="4" t="inlineStr"/>
-      <c r="E9" s="4" t="inlineStr"/>
-      <c r="F9" s="4" t="inlineStr"/>
-      <c r="G9" s="4" t="inlineStr"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1005,25 +945,25 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J9" s="4" t="inlineStr"/>
+      <c r="K9" s="4" t="inlineStr"/>
+      <c r="L9" s="4" t="inlineStr"/>
       <c r="M9" s="4" t="inlineStr"/>
-      <c r="N9" s="4" t="inlineStr"/>
-      <c r="O9" s="4" t="inlineStr"/>
-      <c r="P9" s="4" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P9" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q9" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1044,31 +984,27 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y9" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="U9" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V9" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W9" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="X9" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Y9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -1076,26 +1012,10 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B10" s="4" t="inlineStr"/>
+      <c r="C10" s="4" t="inlineStr"/>
+      <c r="D10" s="4" t="inlineStr"/>
+      <c r="E10" s="4" t="inlineStr"/>
       <c r="F10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1126,19 +1046,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="L10" s="4" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M10" s="4" t="inlineStr"/>
       <c r="N10" s="4" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P10" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="O10" s="4" t="inlineStr"/>
+      <c r="P10" s="4" t="inlineStr"/>
       <c r="Q10" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1154,16 +1070,36 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T10" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U10" s="4" t="inlineStr"/>
-      <c r="V10" s="4" t="inlineStr"/>
-      <c r="W10" s="4" t="inlineStr"/>
-      <c r="X10" s="4" t="inlineStr"/>
-      <c r="Y10" s="4" t="inlineStr"/>
+      <c r="T10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y10" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -1172,24 +1108,92 @@
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr"/>
-      <c r="C11" s="4" t="inlineStr"/>
-      <c r="D11" s="4" t="inlineStr"/>
-      <c r="E11" s="4" t="inlineStr"/>
-      <c r="F11" s="4" t="inlineStr"/>
-      <c r="G11" s="4" t="inlineStr"/>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="H11" s="4" t="inlineStr"/>
-      <c r="I11" s="4" t="inlineStr"/>
-      <c r="J11" s="4" t="inlineStr"/>
-      <c r="K11" s="4" t="inlineStr"/>
-      <c r="L11" s="4" t="inlineStr"/>
-      <c r="M11" s="4" t="inlineStr"/>
-      <c r="N11" s="4" t="inlineStr"/>
-      <c r="O11" s="4" t="inlineStr"/>
-      <c r="P11" s="4" t="inlineStr"/>
-      <c r="Q11" s="4" t="inlineStr"/>
-      <c r="R11" s="4" t="inlineStr"/>
-      <c r="S11" s="4" t="inlineStr"/>
-      <c r="T11" s="4" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T11" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="U11" s="4" t="inlineStr"/>
       <c r="V11" s="4" t="inlineStr"/>
       <c r="W11" s="4" t="inlineStr"/>
@@ -1293,24 +1297,92 @@
       <c r="D15" s="4" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr"/>
       <c r="F15" s="4" t="inlineStr"/>
-      <c r="G15" s="4" t="inlineStr"/>
-      <c r="H15" s="4" t="inlineStr"/>
-      <c r="I15" s="4" t="inlineStr"/>
-      <c r="J15" s="4" t="inlineStr"/>
-      <c r="K15" s="4" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L15" s="4" t="inlineStr"/>
-      <c r="M15" s="4" t="inlineStr"/>
-      <c r="N15" s="4" t="inlineStr"/>
-      <c r="O15" s="4" t="inlineStr"/>
-      <c r="P15" s="4" t="inlineStr"/>
-      <c r="Q15" s="4" t="inlineStr"/>
-      <c r="R15" s="4" t="inlineStr"/>
-      <c r="S15" s="4" t="inlineStr"/>
-      <c r="T15" s="4" t="inlineStr"/>
-      <c r="U15" s="4" t="inlineStr"/>
-      <c r="V15" s="4" t="inlineStr"/>
-      <c r="W15" s="4" t="inlineStr"/>
-      <c r="X15" s="4" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="R15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="S15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X15" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y15" s="4" t="inlineStr"/>
     </row>
     <row r="16">
@@ -1349,15 +1421,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="H16" s="4" t="inlineStr"/>
       <c r="I16" s="4" t="inlineStr"/>
       <c r="J16" s="4" t="inlineStr"/>
       <c r="K16" s="4" t="inlineStr"/>
-      <c r="L16" s="4" t="inlineStr"/>
+      <c r="L16" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M16" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1388,9 +1460,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S16" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
+      <c r="S16" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="T16" s="4" t="inlineStr"/>
@@ -1406,41 +1478,65 @@
           <t>Mie</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr"/>
-      <c r="C17" s="4" t="inlineStr"/>
-      <c r="D17" s="4" t="inlineStr"/>
-      <c r="E17" s="4" t="inlineStr"/>
-      <c r="F17" s="4" t="inlineStr"/>
-      <c r="G17" s="4" t="inlineStr"/>
-      <c r="H17" s="4" t="inlineStr"/>
-      <c r="I17" s="4" t="inlineStr"/>
-      <c r="J17" s="4" t="inlineStr"/>
-      <c r="K17" s="4" t="inlineStr"/>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L17" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="M17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M17" s="4" t="inlineStr"/>
+      <c r="N17" s="4" t="inlineStr"/>
+      <c r="O17" s="4" t="inlineStr"/>
+      <c r="P17" s="4" t="inlineStr"/>
       <c r="Q17" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1456,25 +1552,29 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T17" s="4" t="inlineStr"/>
-      <c r="U17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X17" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
+      <c r="T17" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U17" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="V17" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W17" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="X17" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
         </is>
       </c>
       <c r="Y17" s="4" t="inlineStr"/>
@@ -1520,55 +1620,39 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I18" s="4" t="inlineStr"/>
       <c r="J18" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="K18" s="4" t="inlineStr"/>
-      <c r="L18" s="4" t="inlineStr"/>
-      <c r="M18" s="4" t="inlineStr"/>
-      <c r="N18" s="4" t="inlineStr"/>
-      <c r="O18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Q18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U18" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="M18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N18" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O18" s="4" t="inlineStr"/>
+      <c r="P18" s="4" t="inlineStr"/>
+      <c r="Q18" s="4" t="inlineStr"/>
+      <c r="R18" s="4" t="inlineStr"/>
+      <c r="S18" s="4" t="inlineStr"/>
+      <c r="T18" s="4" t="inlineStr"/>
+      <c r="U18" s="4" t="inlineStr"/>
       <c r="V18" s="4" t="inlineStr"/>
       <c r="W18" s="4" t="inlineStr"/>
       <c r="X18" s="4" t="inlineStr"/>
@@ -1580,36 +1664,12 @@
           <t>Vie</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G19" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B19" s="4" t="inlineStr"/>
+      <c r="C19" s="4" t="inlineStr"/>
+      <c r="D19" s="4" t="inlineStr"/>
+      <c r="E19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr"/>
+      <c r="G19" s="4" t="inlineStr"/>
       <c r="H19" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1654,20 +1714,36 @@
           <t>R</t>
         </is>
       </c>
-      <c r="T19" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="U19" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V19" s="4" t="inlineStr"/>
-      <c r="W19" s="4" t="inlineStr"/>
-      <c r="X19" s="4" t="inlineStr"/>
-      <c r="Y19" s="4" t="inlineStr"/>
+      <c r="T19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="U19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Y19" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -1720,18 +1796,14 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K20" s="4" t="inlineStr"/>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="L20" s="4" t="inlineStr"/>
-      <c r="M20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N20" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M20" s="4" t="inlineStr"/>
+      <c r="N20" s="4" t="inlineStr"/>
       <c r="O20" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -1783,80 +1855,24 @@
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr"/>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="C21" s="4" t="inlineStr"/>
+      <c r="D21" s="4" t="inlineStr"/>
+      <c r="E21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr"/>
+      <c r="G21" s="4" t="inlineStr"/>
+      <c r="H21" s="4" t="inlineStr"/>
+      <c r="I21" s="4" t="inlineStr"/>
+      <c r="J21" s="4" t="inlineStr"/>
+      <c r="K21" s="4" t="inlineStr"/>
+      <c r="L21" s="4" t="inlineStr"/>
       <c r="M21" s="4" t="inlineStr"/>
       <c r="N21" s="4" t="inlineStr"/>
       <c r="O21" s="4" t="inlineStr"/>
       <c r="P21" s="4" t="inlineStr"/>
-      <c r="Q21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T21" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="Q21" s="4" t="inlineStr"/>
+      <c r="R21" s="4" t="inlineStr"/>
+      <c r="S21" s="4" t="inlineStr"/>
+      <c r="T21" s="4" t="inlineStr"/>
       <c r="U21" s="4" t="inlineStr"/>
       <c r="V21" s="4" t="inlineStr"/>
       <c r="W21" s="4" t="inlineStr"/>
@@ -1990,8 +2006,16 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I25" s="4" t="inlineStr"/>
-      <c r="J25" s="4" t="inlineStr"/>
+      <c r="I25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2002,26 +2026,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P25" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M25" s="4" t="inlineStr"/>
+      <c r="N25" s="4" t="inlineStr"/>
+      <c r="O25" s="4" t="inlineStr"/>
+      <c r="P25" s="4" t="inlineStr"/>
       <c r="Q25" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2042,18 +2050,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U25" s="6" t="inlineStr">
+      <c r="U25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W25" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X25" s="6" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
-      <c r="V25" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W25" s="4" t="inlineStr"/>
-      <c r="X25" s="4" t="inlineStr"/>
       <c r="Y25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2062,11 +2078,31 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr"/>
-      <c r="C26" s="4" t="inlineStr"/>
-      <c r="D26" s="4" t="inlineStr"/>
-      <c r="E26" s="4" t="inlineStr"/>
-      <c r="F26" s="4" t="inlineStr"/>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="G26" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2126,21 +2162,13 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X26" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="V26" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="W26" s="4" t="inlineStr"/>
+      <c r="X26" s="4" t="inlineStr"/>
       <c r="Y26" s="4" t="inlineStr"/>
     </row>
     <row r="27">
@@ -2180,37 +2208,65 @@
           <t>Jue</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr"/>
-      <c r="C28" s="4" t="inlineStr"/>
-      <c r="D28" s="4" t="inlineStr"/>
-      <c r="E28" s="4" t="inlineStr"/>
-      <c r="F28" s="4" t="inlineStr"/>
-      <c r="G28" s="4" t="inlineStr"/>
-      <c r="H28" s="4" t="inlineStr"/>
-      <c r="I28" s="4" t="inlineStr"/>
-      <c r="J28" s="4" t="inlineStr"/>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="H28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="I28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="J28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="K28" s="4" t="inlineStr"/>
-      <c r="L28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L28" s="4" t="inlineStr"/>
+      <c r="M28" s="4" t="inlineStr"/>
+      <c r="N28" s="4" t="inlineStr"/>
       <c r="O28" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="P28" s="4" t="inlineStr"/>
+      <c r="P28" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q28" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2236,21 +2292,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X28" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="V28" s="4" t="inlineStr"/>
+      <c r="W28" s="4" t="inlineStr"/>
+      <c r="X28" s="4" t="inlineStr"/>
       <c r="Y28" s="4" t="inlineStr"/>
     </row>
     <row r="29">
@@ -2300,12 +2344,12 @@
           <t>R</t>
         </is>
       </c>
-      <c r="S29" s="4" t="inlineStr"/>
-      <c r="T29" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="S29" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="T29" s="4" t="inlineStr"/>
       <c r="U29" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2338,10 +2382,26 @@
           <t>Sab</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr"/>
-      <c r="C30" s="4" t="inlineStr"/>
-      <c r="D30" s="4" t="inlineStr"/>
-      <c r="E30" s="4" t="inlineStr"/>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="F30" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2367,65 +2427,53 @@
           <t>R</t>
         </is>
       </c>
-      <c r="K30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="M30" s="4" t="inlineStr"/>
-      <c r="N30" s="4" t="inlineStr"/>
-      <c r="O30" s="4" t="inlineStr"/>
-      <c r="P30" s="4" t="inlineStr"/>
-      <c r="Q30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="R30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="S30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="T30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="U30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="V30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="X30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="Y30" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="K30" s="4" t="inlineStr"/>
+      <c r="L30" s="4" t="inlineStr"/>
+      <c r="M30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O30" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P30" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="Q30" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="R30" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="S30" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="T30" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="U30" s="4" t="inlineStr"/>
+      <c r="V30" s="4" t="inlineStr"/>
+      <c r="W30" s="4" t="inlineStr"/>
+      <c r="X30" s="4" t="inlineStr"/>
+      <c r="Y30" s="4" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -2459,7 +2507,11 @@
           <t>R</t>
         </is>
       </c>
-      <c r="H31" s="4" t="inlineStr"/>
+      <c r="H31" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="I31" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2480,26 +2532,10 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="N31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P31" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M31" s="4" t="inlineStr"/>
+      <c r="N31" s="4" t="inlineStr"/>
+      <c r="O31" s="4" t="inlineStr"/>
+      <c r="P31" s="4" t="inlineStr"/>
       <c r="Q31" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2653,16 +2689,8 @@
           <t>R</t>
         </is>
       </c>
-      <c r="I35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J35" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="I35" s="4" t="inlineStr"/>
+      <c r="J35" s="4" t="inlineStr"/>
       <c r="K35" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2673,10 +2701,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="M35" s="4" t="inlineStr"/>
-      <c r="N35" s="4" t="inlineStr"/>
-      <c r="O35" s="4" t="inlineStr"/>
-      <c r="P35" s="4" t="inlineStr"/>
+      <c r="M35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P35" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q35" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2707,16 +2751,8 @@
           <t>X</t>
         </is>
       </c>
-      <c r="W35" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="X35" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="W35" s="4" t="inlineStr"/>
+      <c r="X35" s="4" t="inlineStr"/>
       <c r="Y35" s="4" t="inlineStr"/>
     </row>
     <row r="36">
@@ -2725,70 +2761,42 @@
           <t>Mar</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="C36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="D36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="E36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="F36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="G36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="H36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="I36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="J36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="B36" s="4" t="inlineStr"/>
+      <c r="C36" s="4" t="inlineStr"/>
+      <c r="D36" s="4" t="inlineStr"/>
+      <c r="E36" s="4" t="inlineStr"/>
+      <c r="F36" s="4" t="inlineStr"/>
+      <c r="G36" s="4" t="inlineStr"/>
+      <c r="H36" s="4" t="inlineStr"/>
+      <c r="I36" s="4" t="inlineStr"/>
+      <c r="J36" s="4" t="inlineStr"/>
+      <c r="K36" s="4" t="inlineStr"/>
       <c r="L36" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="M36" s="4" t="inlineStr"/>
-      <c r="N36" s="4" t="inlineStr"/>
-      <c r="O36" s="4" t="inlineStr"/>
-      <c r="P36" s="4" t="inlineStr"/>
-      <c r="Q36" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="M36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="N36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="Q36" s="4" t="inlineStr"/>
       <c r="R36" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2804,18 +2812,26 @@
           <t>R</t>
         </is>
       </c>
-      <c r="U36" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="V36" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W36" s="4" t="inlineStr"/>
-      <c r="X36" s="4" t="inlineStr"/>
+      <c r="U36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="V36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X36" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Y36" s="4" t="inlineStr"/>
     </row>
     <row r="37">
@@ -2864,25 +2880,25 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="K37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="L37" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="J37" s="4" t="inlineStr"/>
+      <c r="K37" s="4" t="inlineStr"/>
+      <c r="L37" s="4" t="inlineStr"/>
       <c r="M37" s="4" t="inlineStr"/>
-      <c r="N37" s="4" t="inlineStr"/>
-      <c r="O37" s="4" t="inlineStr"/>
-      <c r="P37" s="4" t="inlineStr"/>
+      <c r="N37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="O37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="P37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q37" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -2908,21 +2924,17 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V37" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="W37" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="X37" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="V37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="W37" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="X37" s="4" t="inlineStr"/>
       <c r="Y37" s="4" t="inlineStr"/>
     </row>
     <row r="38">
@@ -2957,15 +2969,15 @@
           <t>R</t>
         </is>
       </c>
-      <c r="L38" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="L38" s="4" t="inlineStr"/>
       <c r="M38" s="4" t="inlineStr"/>
       <c r="N38" s="4" t="inlineStr"/>
       <c r="O38" s="4" t="inlineStr"/>
-      <c r="P38" s="4" t="inlineStr"/>
+      <c r="P38" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="Q38" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3054,25 +3066,25 @@
           <t>R</t>
         </is>
       </c>
-      <c r="J39" s="4" t="inlineStr"/>
-      <c r="K39" s="4" t="inlineStr"/>
-      <c r="L39" s="4" t="inlineStr"/>
+      <c r="J39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="L39" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="M39" s="4" t="inlineStr"/>
-      <c r="N39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="O39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="P39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="N39" s="4" t="inlineStr"/>
+      <c r="O39" s="4" t="inlineStr"/>
+      <c r="P39" s="4" t="inlineStr"/>
       <c r="Q39" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3098,21 +3110,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="V39" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="W39" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
-      <c r="X39" s="6" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+      <c r="V39" s="4" t="inlineStr"/>
+      <c r="W39" s="4" t="inlineStr"/>
+      <c r="X39" s="4" t="inlineStr"/>
       <c r="Y39" s="4" t="inlineStr"/>
     </row>
     <row r="40">
@@ -3160,17 +3160,17 @@
           <t>R</t>
         </is>
       </c>
-      <c r="Q40" s="4" t="inlineStr"/>
+      <c r="Q40" s="5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
       <c r="R40" s="5" t="inlineStr">
         <is>
           <t>R</t>
         </is>
       </c>
-      <c r="S40" s="5" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
+      <c r="S40" s="4" t="inlineStr"/>
       <c r="T40" s="5" t="inlineStr">
         <is>
           <t>R</t>
@@ -3335,29 +3335,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>19:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3378,20 +3366,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>19:30</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3411,29 +3409,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -3454,22 +3452,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -3497,26 +3495,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
@@ -3540,29 +3538,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H7" t="n">
         <v>8</v>
       </c>
       <c r="I7" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -3583,17 +3581,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+          <t>08:30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>11:00</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>11:30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>17:30</t>
+        </is>
+      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -3614,17 +3624,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Descanso</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>13:00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10">
@@ -3650,12 +3672,12 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -3688,17 +3710,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -3707,10 +3729,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -3736,24 +3758,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>12:00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>14:30</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>18:00</t>
-        </is>
-      </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13">
@@ -3774,7 +3796,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3789,11 +3811,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -3822,12 +3844,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -3836,10 +3858,10 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15">
@@ -3860,29 +3882,17 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>08:30</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
+          <t>Descanso</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3908,24 +3918,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H16" t="n">
         <v>9.5</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -3946,7 +3956,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3961,11 +3971,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
@@ -4020,29 +4030,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I19" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -4068,12 +4078,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -4106,29 +4116,29 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>13:30</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>15:30</t>
-        </is>
-      </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -4154,12 +4164,12 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -4168,10 +4178,10 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -4197,24 +4207,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>9.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -4235,29 +4245,29 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>18:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="25">
@@ -4283,21 +4293,21 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>19:00</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="I25" t="n">
         <v>2</v>
@@ -4326,12 +4336,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -4369,21 +4379,21 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="I27" t="n">
         <v>2</v>
@@ -4412,12 +4422,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
